--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cn\Desktop\Learning\软件工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DECAC04-4BD6-498E-AB85-BBF5EA2C7721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255E57D-A291-489E-869D-C78E78FA743A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1330" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="824">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1634,9 +1634,6 @@
     <t>dd8ae</t>
   </si>
   <si>
-    <t>测试实时监控数据</t>
-  </si>
-  <si>
     <t>测试历史监控数据</t>
   </si>
   <si>
@@ -1771,10 +1768,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mqlkkk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wenguang1998</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1819,10 +1812,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>96,99</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1831,10 +1820,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7，8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>尚未测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1847,10 +1832,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,7,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>111, 112, 113 114, 115, 116</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1863,14 +1844,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0,7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1892,661 +1865,58 @@
     <t>修复若干小问题，完成Setup函数</t>
   </si>
   <si>
-    <t>group-training.json@e60a051</t>
-  </si>
-  <si>
-    <t>group-training.json@bb6566e</t>
-  </si>
-  <si>
-    <t>group-training.json@d1533bc</t>
-  </si>
-  <si>
-    <t>group-training.json@c2b9373</t>
-  </si>
-  <si>
-    <t>group-training.json@75ab77f</t>
-  </si>
-  <si>
-    <t>group-training.json@5aeb435</t>
-  </si>
-  <si>
-    <t>group-training.json@2aa685a</t>
-  </si>
-  <si>
-    <t>group-training.json@08ba3a2</t>
-  </si>
-  <si>
-    <t>group-training.json@6783b77</t>
-  </si>
-  <si>
-    <t>group-training.json@241b317</t>
-  </si>
-  <si>
-    <t>group-training.json@bd779e6</t>
-  </si>
-  <si>
-    <t>group-training.json@2a72c99</t>
-  </si>
-  <si>
-    <t>group-training.json@d5219b6</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@7f4dc88</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@658f2fd</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@75975f8</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@c7e60a7</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@364f8f6</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@2c0f705</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@742ae6e</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@717fcea</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@84e51c9</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@d0a2e28</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@b31507f</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@924dd4d</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@d58ce2f</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@64f29b2</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@482636a</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@a3825c8</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@62d1eb4</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@ef69144</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@e9753f9</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@c16577c</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@6a89ed4</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@e9c49db</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@8ebb7d7</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@a005b0c</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@65785a5</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@5388bf8</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@288aa0c</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@4859af3</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@bde8e97</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@c896e12</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@ac343a2</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@f6e8e15</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@835b806</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@8b916d0</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@df98714</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@10ca7e5</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@4f18b6f</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@41dee1a</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@debd821</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@3a4d301</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@b97366c</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@47e8443</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@06f810b</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@dac2b27</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@9bb9dd8</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@ca99e84</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@8f12e96</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@7ad2ae5</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@0d4b190</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@5c5563a</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@7e12424</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@7ef3a8d</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@08132ad</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@c00939d</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@31f8aca</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@a285330</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@2d7b3a8</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@ae9452a</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@07a7f02</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@6b123de</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@4940985</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@37c9295</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@604202a</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@44dff7e</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@1e5fd7e</t>
-  </si>
-  <si>
-    <t>shattuckite-doc.json@7754203</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@bea2fba</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@93d79a2</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@474a7cd</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@72d3b71</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@e69e858</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@25a14df</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@a50d172</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@2c46e35</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@e43d2f4</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@92c73a7</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@07dd09d</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@485d031</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-driver.json@c5b5266</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@e4478fb</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@3a46bcd</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@5ca08bb</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@69031f2</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@19edcf4</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@710553c</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@a9c9820</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@078ec88</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@e2b2f2f</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@061d15d</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@677da48</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@6ee9148</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@3609d76</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@5a071a8</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@55d1bcb</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@99b5d68</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@7059ab4</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@cc6ccaf</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@31d192e</t>
-  </si>
-  <si>
-    <t>shattuckite-embedded-node.json@d1275d1</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-lora.json@f4d6125</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-lora.json@5824633</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-lora.json@30e1469</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-lora.json@bb36d78</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-lora.json@26f900b</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-lora.json@a35ecbc</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-wifi.json@a4603a5</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-wifi.json@5266b3f</t>
-  </si>
-  <si>
-    <t>shattuckite-firmware-wifi.json@214a694</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@5af36ff</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@163376f</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@f1f0b96</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@7acc253</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@75bd93a</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@4606c70</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@8f267e6</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@1d0c533</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@ed3c520</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@8ee779a</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@d2ef6e6</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@3421b84</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@b19d12b</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@18f25e8</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@8ca69b9</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@1f18118</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@29263bc</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@83e7564</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@8f119ff</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@008b944</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@8467ad2</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@e56cf20</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@85f9fab</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@be39755</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@7add4ca</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@644248b</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@46e605b</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@ca4a76e</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@435f828</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@f0f93ac</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@6aab973</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@045a2ad</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@7d9a071</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@b9b92d7</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@466904f</t>
-  </si>
-  <si>
-    <t>shattuckite-gui.json@9f76217</t>
-  </si>
-  <si>
-    <t>shattuckite-META.json@d3f84df</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@84e69fb</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@9bf7886</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@b5b18ab</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@1cb8bb2</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@6fcfd58</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@b0c9a67</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@867c1a1</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@3c0f3e5</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@87461f9</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@e78f404</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@286da21</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@86ab40c</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@2037779</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@514893f</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@e6539e8</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@6c8eeaf</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@baa6fa6</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@45c2415</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@a9973aa</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@ff82441</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@6739bab</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@a6eaae7</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@2013b75</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@77db4bd</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@75a5aa6</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@f6746f0</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@cdf9dfe</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@0cb4065</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@2ff41d0</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@2437ece</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@b06fedc</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@5f29552</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@559150f</t>
-  </si>
-  <si>
     <t>添加SensorData和事件的Setup测试集</t>
   </si>
   <si>
     <t>增加53行，删除36行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@c317714</t>
-  </si>
-  <si>
     <t>添加部署域名白名单</t>
   </si>
   <si>
     <t>增加5行，删除3行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@63e747c</t>
-  </si>
-  <si>
     <t>添加终端节点/传感器/执行器的setup函数</t>
   </si>
   <si>
-    <t>shattuckite-server.json@1a75ebe</t>
-  </si>
-  <si>
     <t>向Actuator Model内添加ID字段</t>
   </si>
   <si>
     <t>增加7行，删除2行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@0e595f7</t>
-  </si>
-  <si>
     <t>增加51行，删除0行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@3f9a373</t>
-  </si>
-  <si>
     <t>开发传感器相关REST接口</t>
   </si>
   <si>
     <t>增加87行，删除0行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@b43d439</t>
-  </si>
-  <si>
     <t>完成Paho Mqtt Client和 Django的初步集成</t>
   </si>
   <si>
     <t>增加164行，删除22行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@4b9ca72</t>
-  </si>
-  <si>
     <t>添加Admin 站点及i18n支持</t>
   </si>
   <si>
     <t>增加221行，删除12行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@8984092</t>
-  </si>
-  <si>
     <t>修改一些引用错误，完成首次migrations</t>
   </si>
   <si>
     <t>增加112行，删除3行</t>
   </si>
   <si>
-    <t>shattuckite-server.json@4ac6ce3</t>
-  </si>
-  <si>
     <t>实现基本的数据Model建模</t>
   </si>
   <si>
     <t>增加95行，删除0行</t>
-  </si>
-  <si>
-    <t>shattuckite-server.json@94747e7</t>
   </si>
   <si>
     <t>增加505行，删除0行</t>
@@ -2568,10 +1938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总计Commit数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2606,6 +1972,896 @@
   <si>
     <t>Commit统计表</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqlKKK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试实时监控数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试实时监控数据_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设置传感器逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试处理报警事件_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试处理报警事件_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试处理报警事件_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试处理报警事件_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试处理报警事件_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无问题</t>
+  </si>
+  <si>
+    <t>无问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4bc</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c566</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试执行器_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>851f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f4cb</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9d01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1d4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>084b</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ca7f</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial commit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需测试</t>
+  </si>
+  <si>
+    <t>1,8,25-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,24,25-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,28,24,25-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,8,24,25-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,24,23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group-training@e60a051</t>
+  </si>
+  <si>
+    <t>group-training@bb6566e</t>
+  </si>
+  <si>
+    <t>group-training@d1533bc</t>
+  </si>
+  <si>
+    <t>group-training@c2b9373</t>
+  </si>
+  <si>
+    <t>group-training@75ab77f</t>
+  </si>
+  <si>
+    <t>group-training@5aeb435</t>
+  </si>
+  <si>
+    <t>group-training@2aa685a</t>
+  </si>
+  <si>
+    <t>group-training@08ba3a2</t>
+  </si>
+  <si>
+    <t>group-training@6783b77</t>
+  </si>
+  <si>
+    <t>group-training@241b317</t>
+  </si>
+  <si>
+    <t>group-training@bd779e6</t>
+  </si>
+  <si>
+    <t>group-training@2a72c99</t>
+  </si>
+  <si>
+    <t>group-training@d5219b6</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@7f4dc88</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@658f2fd</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@75975f8</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@c7e60a7</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@364f8f6</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@2c0f705</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@742ae6e</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@717fcea</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@84e51c9</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@d0a2e28</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@b31507f</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@924dd4d</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@d58ce2f</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@64f29b2</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@482636a</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@a3825c8</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@62d1eb4</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@ef69144</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@e9753f9</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@c16577c</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@6a89ed4</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@e9c49db</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@8ebb7d7</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@a005b0c</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@65785a5</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@5388bf8</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@288aa0c</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@4859af3</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@bde8e97</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@c896e12</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@ac343a2</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@f6e8e15</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@835b806</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@8b916d0</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@df98714</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@10ca7e5</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@4f18b6f</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@41dee1a</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@debd821</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@3a4d301</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@b97366c</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@47e8443</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@06f810b</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@dac2b27</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@9bb9dd8</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@ca99e84</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@8f12e96</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@7ad2ae5</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@0d4b190</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@5c5563a</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@7e12424</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@7ef3a8d</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@08132ad</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@c00939d</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@31f8aca</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@a285330</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@2d7b3a8</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@ae9452a</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@07a7f02</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@6b123de</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@4940985</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@37c9295</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@604202a</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@44dff7e</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@1e5fd7e</t>
+  </si>
+  <si>
+    <t>shattuckite-doc@7754203</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@bea2fba</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@93d79a2</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@474a7cd</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@72d3b71</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@e69e858</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@25a14df</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@a50d172</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@2c46e35</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@e43d2f4</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@92c73a7</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@07dd09d</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@485d031</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-driver@c5b5266</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@e4478fb</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@3a46bcd</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@5ca08bb</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@69031f2</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@19edcf4</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@710553c</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@a9c9820</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@078ec88</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@e2b2f2f</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@061d15d</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@677da48</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@6ee9148</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@3609d76</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@5a071a8</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@55d1bcb</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@99b5d68</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@7059ab4</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@cc6ccaf</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@31d192e</t>
+  </si>
+  <si>
+    <t>shattuckite-embedded-node@d1275d1</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-lora@f4d6125</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-lora@5824633</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-lora@30e1469</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-lora@bb36d78</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-lora@26f900b</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-lora@a35ecbc</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-wifi@a4603a5</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-wifi@5266b3f</t>
+  </si>
+  <si>
+    <t>shattuckite-firmware-wifi@214a694</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@5af36ff</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@163376f</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@f1f0b96</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@7acc253</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@75bd93a</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@4606c70</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@8f267e6</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@1d0c533</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@ed3c520</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@8ee779a</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@d2ef6e6</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@3421b84</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@b19d12b</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@18f25e8</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@8ca69b9</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@1f18118</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@29263bc</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@83e7564</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@8f119ff</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@008b944</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@8467ad2</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@e56cf20</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@85f9fab</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@be39755</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@7add4ca</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@644248b</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@46e605b</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@ca4a76e</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@435f828</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@f0f93ac</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@6aab973</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@045a2ad</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@7d9a071</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@b9b92d7</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@466904f</t>
+  </si>
+  <si>
+    <t>shattuckite-gui@9f76217</t>
+  </si>
+  <si>
+    <t>shattuckite-META@d3f84df</t>
+  </si>
+  <si>
+    <t>shattuckite-server@84e69fb</t>
+  </si>
+  <si>
+    <t>shattuckite-server@9bf7886</t>
+  </si>
+  <si>
+    <t>shattuckite-server@b5b18ab</t>
+  </si>
+  <si>
+    <t>shattuckite-server@1cb8bb2</t>
+  </si>
+  <si>
+    <t>shattuckite-server@6fcfd58</t>
+  </si>
+  <si>
+    <t>shattuckite-server@b0c9a67</t>
+  </si>
+  <si>
+    <t>shattuckite-server@867c1a1</t>
+  </si>
+  <si>
+    <t>shattuckite-server@3c0f3e5</t>
+  </si>
+  <si>
+    <t>shattuckite-server@87461f9</t>
+  </si>
+  <si>
+    <t>shattuckite-server@e78f404</t>
+  </si>
+  <si>
+    <t>shattuckite-server@286da21</t>
+  </si>
+  <si>
+    <t>shattuckite-server@86ab40c</t>
+  </si>
+  <si>
+    <t>shattuckite-server@2037779</t>
+  </si>
+  <si>
+    <t>shattuckite-server@514893f</t>
+  </si>
+  <si>
+    <t>shattuckite-server@e6539e8</t>
+  </si>
+  <si>
+    <t>shattuckite-server@6c8eeaf</t>
+  </si>
+  <si>
+    <t>shattuckite-server@baa6fa6</t>
+  </si>
+  <si>
+    <t>shattuckite-server@45c2415</t>
+  </si>
+  <si>
+    <t>shattuckite-server@a9973aa</t>
+  </si>
+  <si>
+    <t>shattuckite-server@ff82441</t>
+  </si>
+  <si>
+    <t>shattuckite-server@6739bab</t>
+  </si>
+  <si>
+    <t>shattuckite-server@a6eaae7</t>
+  </si>
+  <si>
+    <t>shattuckite-server@2013b75</t>
+  </si>
+  <si>
+    <t>shattuckite-server@77db4bd</t>
+  </si>
+  <si>
+    <t>shattuckite-server@75a5aa6</t>
+  </si>
+  <si>
+    <t>shattuckite-server@f6746f0</t>
+  </si>
+  <si>
+    <t>shattuckite-server@cdf9dfe</t>
+  </si>
+  <si>
+    <t>shattuckite-server@0cb4065</t>
+  </si>
+  <si>
+    <t>shattuckite-server@2ff41d0</t>
+  </si>
+  <si>
+    <t>shattuckite-server@2437ece</t>
+  </si>
+  <si>
+    <t>shattuckite-server@b06fedc</t>
+  </si>
+  <si>
+    <t>shattuckite-server@5f29552</t>
+  </si>
+  <si>
+    <t>shattuckite-server@559150f</t>
+  </si>
+  <si>
+    <t>shattuckite-server@c317714</t>
+  </si>
+  <si>
+    <t>shattuckite-server@63e747c</t>
+  </si>
+  <si>
+    <t>shattuckite-server@1a75ebe</t>
+  </si>
+  <si>
+    <t>shattuckite-server@0e595f7</t>
+  </si>
+  <si>
+    <t>shattuckite-server@3f9a373</t>
+  </si>
+  <si>
+    <t>shattuckite-server@b43d439</t>
+  </si>
+  <si>
+    <t>shattuckite-server@4b9ca72</t>
+  </si>
+  <si>
+    <t>shattuckite-server@8984092</t>
+  </si>
+  <si>
+    <t>shattuckite-server@4ac6ce3</t>
+  </si>
+  <si>
+    <t>shattuckite-server@94747e7</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2870,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -2903,18 +3159,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2942,25 +3186,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2999,6 +3243,9 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3009,6 +3256,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3315,16 +3571,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.58203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.58203125" style="40" customWidth="1"/>
-    <col min="5" max="6" width="20.58203125" style="17" customWidth="1"/>
+    <col min="1" max="2" width="20.58203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="20.58203125" style="13" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
@@ -3337,20 +3593,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3359,24 +3615,24 @@
       <c r="B3" s="10">
         <v>105</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -3393,17 +3649,17 @@
       <c r="B6" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="F6" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3411,196 +3667,196 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>0</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="C11" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
       <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="C13" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
       <c r="B14" s="10">
         <v>4</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
       <c r="B15" s="10">
         <v>5</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>6</v>
       </c>
       <c r="B16" s="10">
         <v>6</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>7</v>
       </c>
       <c r="B17" s="10">
         <v>7</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="C17" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3613,17 +3869,17 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>8</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>547</v>
+      <c r="C18" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>545</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3637,17 +3893,17 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>9</v>
       </c>
       <c r="B19" s="10">
         <v>9</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>549</v>
+      <c r="C19" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>619</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3661,17 +3917,17 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>10</v>
       </c>
       <c r="B20" s="10">
         <v>10</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>547</v>
+      <c r="C20" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>545</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3685,17 +3941,17 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="15">
         <v>11</v>
       </c>
       <c r="B21" s="10">
         <v>11</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>551</v>
+      <c r="C21" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>548</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3709,17 +3965,17 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>12</v>
       </c>
       <c r="B22" s="10">
         <v>12</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>552</v>
+      <c r="C22" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>620</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3733,17 +3989,17 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="15">
         <v>13</v>
       </c>
       <c r="B23" s="10">
         <v>13</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="24">
         <v>92</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>553</v>
+      <c r="D23" s="32" t="s">
+        <v>549</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3757,17 +4013,17 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>14</v>
       </c>
       <c r="B24" s="10">
         <v>14</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="24">
         <v>190</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>553</v>
+      <c r="D24" s="32" t="s">
+        <v>549</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3781,17 +4037,17 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="15">
         <v>15</v>
       </c>
       <c r="B25" s="10">
         <v>15</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="24">
         <v>99</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>542</v>
+      <c r="D25" s="32" t="s">
+        <v>540</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3805,17 +4061,17 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>16</v>
       </c>
       <c r="B26" s="10">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>547</v>
+      <c r="C26" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>545</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3829,20 +4085,20 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>17</v>
       </c>
       <c r="B27" s="10">
         <v>17</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="24">
         <v>106</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="D27" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3855,20 +4111,20 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>18</v>
       </c>
       <c r="B28" s="10">
         <v>18</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D28" s="36">
-        <v>3</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="C28" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3881,20 +4137,20 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="15">
         <v>19</v>
       </c>
       <c r="B29" s="10">
         <v>19</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="C29" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -3907,20 +4163,20 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>20</v>
       </c>
       <c r="B30" s="10">
         <v>20</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3933,20 +4189,20 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="15">
         <v>21</v>
       </c>
       <c r="B31" s="10">
         <v>21</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="C31" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3959,20 +4215,20 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="15">
         <v>22</v>
       </c>
       <c r="B32" s="10">
         <v>22</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="24">
         <v>189</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3985,20 +4241,20 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="15">
         <v>23</v>
       </c>
       <c r="B33" s="10">
         <v>23</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="24">
         <v>188</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="32">
         <v>1</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4011,20 +4267,20 @@
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="15">
         <v>24</v>
       </c>
       <c r="B34" s="10">
         <v>24</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="24">
         <v>189</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="D34" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4037,20 +4293,20 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="15">
         <v>25</v>
       </c>
       <c r="B35" s="10">
         <v>25</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="24">
         <v>127</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>560</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="D35" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4063,20 +4319,20 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="15">
         <v>26</v>
       </c>
       <c r="B36" s="10">
         <v>26</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="24">
         <v>132</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="32">
         <v>1</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4089,20 +4345,20 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="15">
         <v>27</v>
       </c>
       <c r="B37" s="10">
         <v>27</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="24">
         <v>143</v>
       </c>
-      <c r="D37" s="36">
-        <v>3</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="D37" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4115,20 +4371,20 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="15">
         <v>28</v>
       </c>
       <c r="B38" s="10">
         <v>28</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="24">
         <v>177</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="D38" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4141,20 +4397,20 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="15">
         <v>29</v>
       </c>
       <c r="B39" s="10">
         <v>29</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="24">
         <v>145</v>
       </c>
-      <c r="D39" s="36">
-        <v>6</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="D39" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -4167,20 +4423,20 @@
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="15">
         <v>30</v>
       </c>
       <c r="B40" s="10">
         <v>30</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="24">
         <v>146</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="32">
         <v>4</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -4193,20 +4449,20 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="15">
         <v>31</v>
       </c>
       <c r="B41" s="10">
         <v>31</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="24">
         <v>133</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="D41" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -4219,20 +4475,20 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="15">
         <v>32</v>
       </c>
       <c r="B42" s="10">
         <v>32</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="C42" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -4245,20 +4501,20 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="15">
         <v>33</v>
       </c>
       <c r="B43" s="10">
         <v>33</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="24">
         <v>150</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="D43" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -4271,20 +4527,20 @@
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="15">
         <v>34</v>
       </c>
       <c r="B44" s="10">
         <v>34</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="24">
         <v>191</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="D44" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -4297,20 +4553,20 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="15">
         <v>35</v>
       </c>
       <c r="B45" s="10">
         <v>35</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="C45" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -4323,20 +4579,20 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="15">
         <v>36</v>
       </c>
       <c r="B46" s="10">
         <v>36</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+      <c r="C46" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4349,20 +4605,20 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="15">
         <v>37</v>
       </c>
       <c r="B47" s="10">
         <v>37</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="C47" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4375,20 +4631,20 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="15">
         <v>38</v>
       </c>
       <c r="B48" s="10">
         <v>38</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
+      <c r="C48" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -4401,20 +4657,20 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="15">
         <v>39</v>
       </c>
       <c r="B49" s="10">
         <v>39</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
+      <c r="C49" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -4427,20 +4683,20 @@
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="15">
         <v>40</v>
       </c>
       <c r="B50" s="10">
         <v>40</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="24">
         <v>26</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
+      <c r="D50" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -4453,20 +4709,20 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="15">
         <v>41</v>
       </c>
       <c r="B51" s="10">
         <v>41</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="24">
         <v>151</v>
       </c>
-      <c r="D51" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="D51" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -4479,20 +4735,20 @@
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="15">
         <v>42</v>
       </c>
       <c r="B52" s="10">
         <v>42</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="C52" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -4505,20 +4761,20 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="15">
         <v>43</v>
       </c>
       <c r="B53" s="10">
         <v>43</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="24">
         <v>155</v>
       </c>
-      <c r="D53" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
+      <c r="D53" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -4531,20 +4787,20 @@
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="A54" s="15">
         <v>44</v>
       </c>
       <c r="B54" s="10">
         <v>44</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
+      <c r="C54" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4557,20 +4813,20 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
+      <c r="A55" s="15">
         <v>45</v>
       </c>
       <c r="B55" s="10">
         <v>45</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="24">
         <v>26</v>
       </c>
-      <c r="D55" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="D55" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4583,20 +4839,20 @@
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
+      <c r="A56" s="15">
         <v>46</v>
       </c>
       <c r="B56" s="10">
         <v>46</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="24">
         <v>26</v>
       </c>
-      <c r="D56" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="D56" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -4609,20 +4865,20 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
+      <c r="A57" s="15">
         <v>47</v>
       </c>
       <c r="B57" s="10">
         <v>47</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="24">
         <v>35</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+      <c r="D57" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -4635,20 +4891,20 @@
       <c r="P57" s="2"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
+      <c r="A58" s="15">
         <v>48</v>
       </c>
       <c r="B58" s="10">
         <v>48</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="24">
         <v>35</v>
       </c>
-      <c r="D58" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
+      <c r="D58" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -4661,20 +4917,20 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
+      <c r="A59" s="15">
         <v>49</v>
       </c>
       <c r="B59" s="10">
         <v>49</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
+      <c r="C59" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -4687,20 +4943,20 @@
       <c r="P59" s="2"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="15">
         <v>50</v>
       </c>
       <c r="B60" s="10">
         <v>50</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="24">
         <v>26</v>
       </c>
-      <c r="D60" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
+      <c r="D60" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -4713,20 +4969,20 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="A61" s="15">
         <v>51</v>
       </c>
       <c r="B61" s="10">
         <v>51</v>
       </c>
-      <c r="C61" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="D61" s="36" t="s">
+      <c r="C61" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
+      <c r="D61" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -4739,20 +4995,20 @@
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
+      <c r="A62" s="15">
         <v>52</v>
       </c>
       <c r="B62" s="10">
         <v>52</v>
       </c>
-      <c r="C62" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="D62" s="36" t="s">
+      <c r="C62" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
+      <c r="D62" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -4765,20 +5021,20 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
+      <c r="A63" s="15">
         <v>53</v>
       </c>
       <c r="B63" s="10">
         <v>53</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
+      <c r="C63" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -4791,20 +5047,20 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
+      <c r="A64" s="15">
         <v>54</v>
       </c>
       <c r="B64" s="10">
         <v>54</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="24">
         <v>3</v>
       </c>
-      <c r="D64" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
+      <c r="D64" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -4817,20 +5073,20 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+      <c r="A65" s="15">
         <v>55</v>
       </c>
       <c r="B65" s="10">
         <v>55</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="D65" s="36" t="s">
+      <c r="C65" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
+      <c r="D65" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4843,20 +5099,20 @@
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
+      <c r="A66" s="15">
         <v>56</v>
       </c>
       <c r="B66" s="10">
         <v>56</v>
       </c>
-      <c r="C66" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
+      <c r="C66" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4869,20 +5125,20 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
+      <c r="A67" s="15">
         <v>57</v>
       </c>
       <c r="B67" s="10">
         <v>57</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="24">
         <v>158</v>
       </c>
-      <c r="D67" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
+      <c r="D67" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -4895,20 +5151,20 @@
       <c r="P67" s="2"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="19">
+      <c r="A68" s="15">
         <v>58</v>
       </c>
       <c r="B68" s="10">
         <v>58</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="24">
         <v>160</v>
       </c>
-      <c r="D68" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
+      <c r="D68" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -4921,20 +5177,20 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
+      <c r="A69" s="15">
         <v>59</v>
       </c>
       <c r="B69" s="10">
         <v>59</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
+      <c r="C69" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -4947,20 +5203,20 @@
       <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
+      <c r="A70" s="15">
         <v>60</v>
       </c>
       <c r="B70" s="10">
         <v>60</v>
       </c>
-      <c r="C70" s="28">
+      <c r="C70" s="24">
         <v>179</v>
       </c>
-      <c r="D70" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
+      <c r="D70" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -4973,20 +5229,20 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
+      <c r="A71" s="15">
         <v>61</v>
       </c>
       <c r="B71" s="10">
         <v>61</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
+      <c r="C71" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -4999,20 +5255,20 @@
       <c r="P71" s="2"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
+      <c r="A72" s="15">
         <v>62</v>
       </c>
       <c r="B72" s="10">
         <v>62</v>
       </c>
-      <c r="C72" s="28">
+      <c r="C72" s="24">
         <v>192</v>
       </c>
-      <c r="D72" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
+      <c r="D72" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -5025,20 +5281,20 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="19">
+      <c r="A73" s="15">
         <v>63</v>
       </c>
       <c r="B73" s="10">
         <v>63</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="24">
         <v>181</v>
       </c>
-      <c r="D73" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
+      <c r="D73" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -5051,20 +5307,20 @@
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
+      <c r="A74" s="15">
         <v>64</v>
       </c>
       <c r="B74" s="10">
         <v>64</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>788</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
+      <c r="C74" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -5077,20 +5333,20 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="19">
+      <c r="A75" s="15">
         <v>65</v>
       </c>
       <c r="B75" s="10">
         <v>65</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>789</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
+      <c r="C75" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -5103,20 +5359,20 @@
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
+      <c r="A76" s="15">
         <v>66</v>
       </c>
       <c r="B76" s="10">
         <v>66</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="24">
         <v>181</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>792</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
+      <c r="D76" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -5129,20 +5385,20 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
+      <c r="A77" s="15">
         <v>67</v>
       </c>
       <c r="B77" s="10">
         <v>67</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>790</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>791</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
+      <c r="C77" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -5155,12 +5411,12 @@
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -5173,12 +5429,12 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -5191,12 +5447,12 @@
       <c r="P79" s="2"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -5209,14 +5465,14 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16" ht="21.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -5261,19 +5517,19 @@
         <v>1</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="D83" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="E83" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="F83" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>536</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -5286,40 +5542,40 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+    <row r="84" spans="1:16" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="44">
+      <c r="B84" s="40">
         <f>B91/B90</f>
         <v>0.83499999999999996</v>
       </c>
-      <c r="C84" s="44">
+      <c r="C84" s="40">
         <f>B92/B90</f>
         <v>0.115</v>
       </c>
-      <c r="D84" s="44">
+      <c r="D84" s="40">
         <f>B93/B90</f>
         <v>0.02</v>
       </c>
-      <c r="E84" s="44">
+      <c r="E84" s="40">
         <f>B94/B90</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F84" s="44">
+      <c r="F84" s="40">
         <f>B95/B90</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -5343,13 +5599,13 @@
       <c r="A86" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="45" t="s">
-        <v>799</v>
-      </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="47"/>
+      <c r="B86" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="44"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -5365,13 +5621,13 @@
       <c r="A87" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="45" t="s">
-        <v>800</v>
-      </c>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="47"/>
+      <c r="B87" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -5384,12 +5640,12 @@
       <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -5402,14 +5658,14 @@
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
-        <v>801</v>
-      </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
+      <c r="A89" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -5422,16 +5678,16 @@
       <c r="P89" s="2"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="B90" s="25">
+      <c r="A90" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B90" s="21">
         <v>200</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -5444,17 +5700,17 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="B91" s="25">
+      <c r="A91" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="B91" s="21">
         <f>COUNTIF(commit统计表!E3:E203,"CNLHC")</f>
         <v>167</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -5467,17 +5723,17 @@
       <c r="P91" s="2"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
-        <v>795</v>
-      </c>
-      <c r="B92" s="25">
+      <c r="A92" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B92" s="21">
         <f>COUNTIF(commit统计表!E3:E204,"mqlKKK")</f>
         <v>23</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -5490,17 +5746,17 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="B93" s="25">
+      <c r="A93" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="B93" s="21">
         <f>COUNTIF(commit统计表!E3:E205,"wenguang1998")</f>
         <v>4</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -5513,17 +5769,17 @@
       <c r="P93" s="2"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="25" t="s">
-        <v>797</v>
-      </c>
-      <c r="B94" s="25">
+      <c r="A94" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="B94" s="21">
         <f>COUNTIF(commit统计表!E3:E206,"Dicky35")</f>
         <v>3</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -5536,17 +5792,17 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
-        <v>798</v>
-      </c>
-      <c r="B95" s="25">
+      <c r="A95" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B95" s="21">
         <f>COUNTIF(commit统计表!E3:E207,"baixusata")</f>
         <v>3</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -5559,12 +5815,12 @@
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5577,12 +5833,12 @@
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -5595,12 +5851,12 @@
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -5613,11 +5869,11 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="39"/>
-      <c r="F99" s="24"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="35"/>
+      <c r="F99" s="20"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -5630,12 +5886,12 @@
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -5648,12 +5904,12 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -5666,12 +5922,12 @@
       <c r="P101" s="2"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -5684,12 +5940,12 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -5702,12 +5958,12 @@
       <c r="P103" s="2"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -5720,12 +5976,12 @@
       <c r="P104" s="2"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -5738,12 +5994,12 @@
       <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5756,12 +6012,12 @@
       <c r="P106" s="2"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -5774,12 +6030,12 @@
       <c r="P107" s="2"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -5792,12 +6048,12 @@
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -5810,12 +6066,12 @@
       <c r="P109" s="2"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5828,12 +6084,12 @@
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -5846,12 +6102,12 @@
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5864,12 +6120,12 @@
       <c r="P112" s="2"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -5882,12 +6138,12 @@
       <c r="P113" s="2"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5900,12 +6156,12 @@
       <c r="P114" s="2"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -5918,12 +6174,12 @@
       <c r="P115" s="2"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -5936,12 +6192,12 @@
       <c r="P116" s="2"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -5954,12 +6210,12 @@
       <c r="P117" s="2"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5972,12 +6228,12 @@
       <c r="P118" s="2"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -5990,12 +6246,12 @@
       <c r="P119" s="2"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -6008,12 +6264,12 @@
       <c r="P120" s="2"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -6026,12 +6282,12 @@
       <c r="P121" s="2"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -6044,12 +6300,12 @@
       <c r="P122" s="2"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -6062,12 +6318,12 @@
       <c r="P123" s="2"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -6080,12 +6336,12 @@
       <c r="P124" s="2"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -6098,12 +6354,12 @@
       <c r="P125" s="2"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -6116,12 +6372,12 @@
       <c r="P126" s="2"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -6134,12 +6390,12 @@
       <c r="P127" s="2"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -6152,12 +6408,12 @@
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -6170,12 +6426,12 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -6188,12 +6444,12 @@
       <c r="P130" s="2"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -6206,12 +6462,12 @@
       <c r="P131" s="2"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -6224,12 +6480,12 @@
       <c r="P132" s="2"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -6242,12 +6498,12 @@
       <c r="P133" s="2"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -6260,12 +6516,12 @@
       <c r="P134" s="2"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -6278,12 +6534,12 @@
       <c r="P135" s="2"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -6296,12 +6552,12 @@
       <c r="P136" s="2"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -6314,12 +6570,12 @@
       <c r="P137" s="2"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -6332,12 +6588,12 @@
       <c r="P138" s="2"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -6350,12 +6606,12 @@
       <c r="P139" s="2"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -6368,12 +6624,12 @@
       <c r="P140" s="2"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -6386,12 +6642,12 @@
       <c r="P141" s="2"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -6404,12 +6660,12 @@
       <c r="P142" s="2"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6422,12 +6678,12 @@
       <c r="P143" s="2"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -6440,12 +6696,12 @@
       <c r="P144" s="2"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -6458,12 +6714,12 @@
       <c r="P145" s="2"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -6476,12 +6732,12 @@
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -6494,12 +6750,12 @@
       <c r="P147" s="2"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -6512,12 +6768,12 @@
       <c r="P148" s="2"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -6530,12 +6786,12 @@
       <c r="P149" s="2"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -6548,12 +6804,12 @@
       <c r="P150" s="2"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -6566,12 +6822,12 @@
       <c r="P151" s="2"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="24"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -6584,12 +6840,12 @@
       <c r="P152" s="2"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -6602,12 +6858,12 @@
       <c r="P153" s="2"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -6620,12 +6876,12 @@
       <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -6638,12 +6894,12 @@
       <c r="P155" s="2"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="24"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -6656,12 +6912,12 @@
       <c r="P156" s="2"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="24"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -6674,12 +6930,12 @@
       <c r="P157" s="2"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="24"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -6692,12 +6948,12 @@
       <c r="P158" s="2"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -6710,12 +6966,12 @@
       <c r="P159" s="2"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -6728,12 +6984,12 @@
       <c r="P160" s="2"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="24"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -6746,12 +7002,12 @@
       <c r="P161" s="2"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -6764,12 +7020,12 @@
       <c r="P162" s="2"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -6782,12 +7038,12 @@
       <c r="P163" s="2"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="24"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -6800,12 +7056,12 @@
       <c r="P164" s="2"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -6818,12 +7074,12 @@
       <c r="P165" s="2"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="24"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -6836,12 +7092,12 @@
       <c r="P166" s="2"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="24"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -6854,12 +7110,12 @@
       <c r="P167" s="2"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="24"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -6872,12 +7128,12 @@
       <c r="P168" s="2"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -6890,12 +7146,12 @@
       <c r="P169" s="2"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="24"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -6908,12 +7164,12 @@
       <c r="P170" s="2"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -6926,12 +7182,12 @@
       <c r="P171" s="2"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A172" s="24"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="35"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -6944,12 +7200,12 @@
       <c r="P172" s="2"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A173" s="24"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="35"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -6962,12 +7218,12 @@
       <c r="P173" s="2"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A174" s="24"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="35"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -6980,12 +7236,12 @@
       <c r="P174" s="2"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A175" s="24"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -6998,12 +7254,12 @@
       <c r="P175" s="2"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A176" s="24"/>
-      <c r="B176" s="24"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="35"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -7016,12 +7272,12 @@
       <c r="P176" s="2"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A177" s="24"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -7034,12 +7290,12 @@
       <c r="P177" s="2"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A178" s="24"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -7052,12 +7308,12 @@
       <c r="P178" s="2"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A179" s="24"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="35"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -7070,12 +7326,12 @@
       <c r="P179" s="2"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A180" s="24"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="35"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -7088,12 +7344,12 @@
       <c r="P180" s="2"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A181" s="24"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="35"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -7106,12 +7362,12 @@
       <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A182" s="24"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -7124,12 +7380,12 @@
       <c r="P182" s="2"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" s="24"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -7142,12 +7398,12 @@
       <c r="P183" s="2"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A184" s="24"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -7160,12 +7416,12 @@
       <c r="P184" s="2"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A185" s="24"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="24"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -7178,12 +7434,12 @@
       <c r="P185" s="2"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A186" s="24"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -7196,12 +7452,12 @@
       <c r="P186" s="2"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A187" s="24"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -7214,12 +7470,12 @@
       <c r="P187" s="2"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A188" s="24"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -7232,12 +7488,12 @@
       <c r="P188" s="2"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A189" s="24"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -7250,12 +7506,12 @@
       <c r="P189" s="2"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A190" s="24"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -7268,12 +7524,12 @@
       <c r="P190" s="2"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="39"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -7286,12 +7542,12 @@
       <c r="P191" s="2"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A192" s="24"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -7304,12 +7560,12 @@
       <c r="P192" s="2"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -7322,12 +7578,12 @@
       <c r="P193" s="2"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -7340,12 +7596,12 @@
       <c r="P194" s="2"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="31"/>
-      <c r="D195" s="39"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -7358,12 +7614,12 @@
       <c r="P195" s="2"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A196" s="24"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="35"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -7376,12 +7632,12 @@
       <c r="P196" s="2"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="24"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="35"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -7394,12 +7650,12 @@
       <c r="P197" s="2"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A198" s="24"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="24"/>
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -7412,12 +7668,12 @@
       <c r="P198" s="2"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199" s="24"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="24"/>
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="35"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -7430,12 +7686,12 @@
       <c r="P199" s="2"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A200" s="24"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="35"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -7448,12 +7704,12 @@
       <c r="P200" s="2"/>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A201" s="24"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
@@ -7466,12 +7722,12 @@
       <c r="P201" s="2"/>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A202" s="24"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="35"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -7484,12 +7740,12 @@
       <c r="P202" s="2"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203" s="24"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -7502,12 +7758,12 @@
       <c r="P203" s="2"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24"/>
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="35"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -7520,12 +7776,12 @@
       <c r="P204" s="2"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="35"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -7538,12 +7794,12 @@
       <c r="P205" s="2"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="24"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="35"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -7556,12 +7812,12 @@
       <c r="P206" s="2"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A207" s="24"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="31"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="35"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -7574,12 +7830,12 @@
       <c r="P207" s="2"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A208" s="24"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="31"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24"/>
+      <c r="A208" s="20"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -7592,12 +7848,12 @@
       <c r="P208" s="2"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24"/>
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -7610,12 +7866,12 @@
       <c r="P209" s="2"/>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A210" s="24"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="31"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24"/>
+      <c r="A210" s="20"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="35"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -7628,12 +7884,12 @@
       <c r="P210" s="2"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24"/>
+      <c r="A211" s="20"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="35"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -7646,12 +7902,12 @@
       <c r="P211" s="2"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A212" s="24"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="31"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="24"/>
+      <c r="A212" s="20"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="35"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -7664,12 +7920,12 @@
       <c r="P212" s="2"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A213" s="24"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="31"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="24"/>
+      <c r="A213" s="20"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="35"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -7682,12 +7938,12 @@
       <c r="P213" s="2"/>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A214" s="24"/>
-      <c r="B214" s="24"/>
-      <c r="C214" s="31"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="24"/>
-      <c r="F214" s="24"/>
+      <c r="A214" s="20"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="35"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -7700,12 +7956,12 @@
       <c r="P214" s="2"/>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A215" s="24"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="31"/>
-      <c r="D215" s="39"/>
-      <c r="E215" s="24"/>
-      <c r="F215" s="24"/>
+      <c r="A215" s="20"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="35"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -7735,25 +7991,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06401FC5-5005-49A2-9140-33193ABED079}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.4140625" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
     <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -7849,7 +8105,7 @@
       <c r="C8" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8213,7 +8469,7 @@
       <c r="C34" t="s">
         <v>407</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="14" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8269,7 +8525,7 @@
       <c r="C38" t="s">
         <v>417</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="14" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8283,7 +8539,7 @@
       <c r="C39" t="s">
         <v>419</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="14" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8297,7 +8553,7 @@
       <c r="C40" t="s">
         <v>421</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="14" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8734,18 +8990,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7184-E062-40F0-A428-AA79917B4B7E}">
   <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="42.08203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="33"/>
+    <col min="2" max="2" width="37" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.08203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" x14ac:dyDescent="0.25">
@@ -8779,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>568</v>
+        <v>623</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -8796,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>569</v>
+        <v>624</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>35</v>
@@ -8813,7 +9069,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>570</v>
+        <v>625</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -8830,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>571</v>
+        <v>626</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
@@ -8847,7 +9103,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
@@ -8864,7 +9120,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>573</v>
+        <v>628</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>37</v>
@@ -8881,7 +9137,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
@@ -8898,7 +9154,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
@@ -8915,7 +9171,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>576</v>
+        <v>631</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>52</v>
@@ -8932,7 +9188,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>577</v>
+        <v>632</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
@@ -8949,7 +9205,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>49</v>
@@ -8966,7 +9222,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>56</v>
@@ -8983,7 +9239,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>57</v>
@@ -9000,7 +9256,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>59</v>
@@ -9017,7 +9273,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>582</v>
+        <v>637</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -9034,7 +9290,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>583</v>
+        <v>638</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>61</v>
@@ -9051,7 +9307,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>63</v>
@@ -9068,7 +9324,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>585</v>
+        <v>640</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>65</v>
@@ -9085,7 +9341,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>67</v>
@@ -9102,7 +9358,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>587</v>
+        <v>642</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
@@ -9119,7 +9375,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>588</v>
+        <v>643</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>70</v>
@@ -9136,7 +9392,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>72</v>
@@ -9153,7 +9409,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>590</v>
+        <v>645</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>74</v>
@@ -9170,7 +9426,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>591</v>
+        <v>646</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>67</v>
@@ -9187,7 +9443,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>592</v>
+        <v>647</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>77</v>
@@ -9204,7 +9460,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>593</v>
+        <v>648</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>79</v>
@@ -9221,7 +9477,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>594</v>
+        <v>649</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>81</v>
@@ -9238,7 +9494,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>595</v>
+        <v>650</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>83</v>
@@ -9255,7 +9511,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>596</v>
+        <v>651</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>85</v>
@@ -9272,7 +9528,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>597</v>
+        <v>652</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>87</v>
@@ -9289,7 +9545,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>89</v>
@@ -9306,7 +9562,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>91</v>
@@ -9323,7 +9579,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>93</v>
@@ -9340,7 +9596,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>95</v>
@@ -9357,7 +9613,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>602</v>
+        <v>657</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -9374,7 +9630,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>603</v>
+        <v>658</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>99</v>
@@ -9391,7 +9647,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>604</v>
+        <v>659</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>101</v>
@@ -9408,7 +9664,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>103</v>
@@ -9425,7 +9681,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>105</v>
@@ -9442,7 +9698,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>107</v>
@@ -9459,7 +9715,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>109</v>
@@ -9476,7 +9732,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>101</v>
@@ -9493,7 +9749,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>111</v>
@@ -9510,7 +9766,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>105</v>
@@ -9527,7 +9783,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>612</v>
+        <v>667</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>107</v>
@@ -9544,7 +9800,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>613</v>
+        <v>668</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>114</v>
@@ -9561,7 +9817,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>614</v>
+        <v>669</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>116</v>
@@ -9578,7 +9834,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>615</v>
+        <v>670</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>118</v>
@@ -9595,7 +9851,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>616</v>
+        <v>671</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>120</v>
@@ -9612,7 +9868,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>617</v>
+        <v>672</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>122</v>
@@ -9629,7 +9885,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>109</v>
@@ -9646,7 +9902,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>93</v>
@@ -9663,7 +9919,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>620</v>
+        <v>675</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>95</v>
@@ -9680,7 +9936,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>97</v>
@@ -9697,7 +9953,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>125</v>
@@ -9714,7 +9970,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>111</v>
@@ -9731,7 +9987,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>61</v>
@@ -9748,7 +10004,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>128</v>
@@ -9765,7 +10021,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>128</v>
@@ -9782,7 +10038,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>128</v>
@@ -9799,7 +10055,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>128</v>
@@ -9816,7 +10072,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>67</v>
@@ -9833,7 +10089,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>135</v>
@@ -9850,7 +10106,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>631</v>
+        <v>686</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>67</v>
@@ -9867,7 +10123,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>632</v>
+        <v>687</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>138</v>
@@ -9884,7 +10140,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>139</v>
@@ -9901,7 +10157,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>141</v>
@@ -9918,7 +10174,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>143</v>
@@ -9935,7 +10191,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>145</v>
@@ -9952,7 +10208,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>637</v>
+        <v>692</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>67</v>
@@ -9969,7 +10225,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
@@ -9986,7 +10242,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>149</v>
@@ -10003,7 +10259,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>640</v>
+        <v>695</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>145</v>
@@ -10020,7 +10276,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>67</v>
@@ -10037,7 +10293,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>642</v>
+        <v>697</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>67</v>
@@ -10054,7 +10310,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>139</v>
@@ -10071,7 +10327,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>154</v>
@@ -10088,7 +10344,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>83</v>
@@ -10105,7 +10361,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>85</v>
@@ -10122,7 +10378,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>647</v>
+        <v>702</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>156</v>
@@ -10139,7 +10395,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>648</v>
+        <v>703</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>158</v>
@@ -10156,7 +10412,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>160</v>
@@ -10173,7 +10429,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>162</v>
@@ -10190,7 +10446,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>651</v>
+        <v>706</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>164</v>
@@ -10207,7 +10463,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>166</v>
@@ -10224,7 +10480,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>168</v>
@@ -10241,7 +10497,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>169</v>
@@ -10258,7 +10514,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>171</v>
@@ -10275,7 +10531,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>173</v>
@@ -10292,7 +10548,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>175</v>
@@ -10309,7 +10565,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>177</v>
@@ -10326,7 +10582,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>659</v>
+        <v>714</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>179</v>
@@ -10343,7 +10599,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>181</v>
@@ -10360,7 +10616,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>183</v>
@@ -10377,7 +10633,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>185</v>
@@ -10394,7 +10650,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>187</v>
@@ -10411,7 +10667,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>188</v>
@@ -10428,7 +10684,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>190</v>
@@ -10445,7 +10701,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>666</v>
+        <v>721</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>192</v>
@@ -10462,7 +10718,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>194</v>
@@ -10479,7 +10735,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>195</v>
@@ -10496,7 +10752,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>197</v>
@@ -10513,7 +10769,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>199</v>
@@ -10530,7 +10786,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>201</v>
@@ -10547,7 +10803,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>202</v>
@@ -10564,7 +10820,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>204</v>
@@ -10581,7 +10837,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>206</v>
@@ -10598,7 +10854,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>208</v>
@@ -10615,7 +10871,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>209</v>
@@ -10632,7 +10888,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>211</v>
@@ -10649,7 +10905,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>213</v>
@@ -10666,7 +10922,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>214</v>
@@ -10683,7 +10939,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>175</v>
@@ -10700,7 +10956,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>217</v>
@@ -10717,7 +10973,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>218</v>
@@ -10734,7 +10990,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>220</v>
@@ -10751,7 +11007,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>222</v>
@@ -10768,7 +11024,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>685</v>
+        <v>740</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>224</v>
@@ -10785,7 +11041,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>226</v>
@@ -10802,7 +11058,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>228</v>
@@ -10819,7 +11075,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>57</v>
@@ -10836,7 +11092,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>230</v>
@@ -10853,7 +11109,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>232</v>
@@ -10870,7 +11126,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>691</v>
+        <v>746</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>234</v>
@@ -10887,7 +11143,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>236</v>
@@ -10904,7 +11160,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>238</v>
@@ -10921,7 +11177,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>240</v>
@@ -10938,7 +11194,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>242</v>
@@ -10955,7 +11211,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>696</v>
+        <v>751</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>244</v>
@@ -10972,7 +11228,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>697</v>
+        <v>752</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>246</v>
@@ -10989,7 +11245,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>698</v>
+        <v>753</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>248</v>
@@ -11006,7 +11262,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>699</v>
+        <v>754</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>250</v>
@@ -11023,7 +11279,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>252</v>
@@ -11040,7 +11296,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>254</v>
@@ -11057,7 +11313,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>256</v>
@@ -11074,7 +11330,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>258</v>
@@ -11091,7 +11347,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>704</v>
+        <v>759</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>260</v>
@@ -11108,7 +11364,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>262</v>
@@ -11125,7 +11381,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>264</v>
@@ -11142,7 +11398,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>707</v>
+        <v>762</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>266</v>
@@ -11159,7 +11415,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>268</v>
@@ -11176,7 +11432,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>270</v>
@@ -11193,7 +11449,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>272</v>
@@ -11210,7 +11466,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>711</v>
+        <v>766</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>274</v>
@@ -11227,7 +11483,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>712</v>
+        <v>767</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>276</v>
@@ -11244,7 +11500,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>713</v>
+        <v>768</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>278</v>
@@ -11261,7 +11517,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>280</v>
@@ -11278,7 +11534,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>715</v>
+        <v>770</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>282</v>
@@ -11295,7 +11551,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>284</v>
@@ -11312,7 +11568,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>286</v>
@@ -11329,7 +11585,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>288</v>
@@ -11346,7 +11602,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>32</v>
@@ -11363,7 +11619,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>720</v>
+        <v>775</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>289</v>
@@ -11380,7 +11636,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>290</v>
@@ -11397,7 +11653,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>722</v>
+        <v>777</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>32</v>
@@ -11414,7 +11670,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>723</v>
+        <v>778</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>32</v>
@@ -11431,7 +11687,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>291</v>
@@ -11448,10 +11704,10 @@
         <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>291</v>
+        <v>780</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>613</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>292</v>
@@ -11465,7 +11721,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>293</v>
@@ -11482,7 +11738,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>727</v>
+        <v>782</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>295</v>
@@ -11499,7 +11755,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>296</v>
@@ -11516,7 +11772,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>729</v>
+        <v>784</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>298</v>
@@ -11533,7 +11789,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>730</v>
+        <v>785</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>300</v>
@@ -11550,7 +11806,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>731</v>
+        <v>786</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>302</v>
@@ -11567,7 +11823,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>732</v>
+        <v>787</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>304</v>
@@ -11584,7 +11840,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>733</v>
+        <v>788</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>305</v>
@@ -11601,7 +11857,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>734</v>
+        <v>789</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>306</v>
@@ -11618,7 +11874,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>735</v>
+        <v>790</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>308</v>
@@ -11635,7 +11891,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>736</v>
+        <v>791</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>309</v>
@@ -11652,7 +11908,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>737</v>
+        <v>792</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>310</v>
@@ -11669,7 +11925,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>312</v>
@@ -11686,7 +11942,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>739</v>
+        <v>794</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>314</v>
@@ -11703,7 +11959,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>740</v>
+        <v>795</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>316</v>
@@ -11720,7 +11976,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>741</v>
+        <v>796</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>318</v>
@@ -11737,7 +11993,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>742</v>
+        <v>797</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>319</v>
@@ -11754,7 +12010,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>743</v>
+        <v>798</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>320</v>
@@ -11771,7 +12027,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>744</v>
+        <v>799</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>322</v>
@@ -11788,7 +12044,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>745</v>
+        <v>800</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>323</v>
@@ -11805,7 +12061,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>324</v>
@@ -11822,7 +12078,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>326</v>
@@ -11839,7 +12095,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>748</v>
+        <v>803</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>328</v>
@@ -11856,7 +12112,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>749</v>
+        <v>804</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>330</v>
@@ -11873,7 +12129,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>750</v>
+        <v>805</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>332</v>
@@ -11890,7 +12146,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>751</v>
+        <v>806</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>334</v>
@@ -11907,7 +12163,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>752</v>
+        <v>807</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>336</v>
@@ -11924,7 +12180,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>753</v>
+        <v>808</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>338</v>
@@ -11941,7 +12197,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>754</v>
+        <v>809</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>340</v>
@@ -11958,7 +12214,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>755</v>
+        <v>810</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>341</v>
@@ -11975,10 +12231,10 @@
         <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>756</v>
+        <v>811</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>170</v>
@@ -11992,10 +12248,10 @@
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>757</v>
+        <v>812</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>191</v>
@@ -12009,13 +12265,13 @@
         <v>190</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>758</v>
+        <v>813</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>759</v>
+        <v>561</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>760</v>
+        <v>562</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>39</v>
@@ -12026,13 +12282,13 @@
         <v>191</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>762</v>
+        <v>563</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>763</v>
+        <v>564</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>39</v>
@@ -12043,10 +12299,10 @@
         <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>764</v>
+        <v>815</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>765</v>
+        <v>565</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>172</v>
@@ -12060,13 +12316,13 @@
         <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>766</v>
+        <v>816</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>39</v>
@@ -12077,13 +12333,13 @@
         <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>769</v>
+        <v>817</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>770</v>
+        <v>568</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>39</v>
@@ -12094,13 +12350,13 @@
         <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>771</v>
+        <v>818</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>772</v>
+        <v>569</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>773</v>
+        <v>570</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>39</v>
@@ -12111,13 +12367,13 @@
         <v>196</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>775</v>
+        <v>571</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>776</v>
+        <v>572</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>39</v>
@@ -12128,13 +12384,13 @@
         <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>777</v>
+        <v>820</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>778</v>
+        <v>573</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>779</v>
+        <v>574</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>39</v>
@@ -12145,13 +12401,13 @@
         <v>198</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>781</v>
+        <v>575</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>782</v>
+        <v>576</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>39</v>
@@ -12162,13 +12418,13 @@
         <v>199</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>784</v>
+        <v>577</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>785</v>
+        <v>578</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>39</v>
@@ -12179,13 +12435,13 @@
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>787</v>
+        <v>579</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>39</v>
@@ -12200,30 +12456,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949143DB-CAF6-450C-9F5A-9FA2FAF2207A}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -12252,8 +12508,8 @@
       <c r="C3" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>529</v>
+      <c r="D3" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>488</v>
@@ -12269,8 +12525,8 @@
       <c r="C4" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>531</v>
+      <c r="D4" s="13" t="s">
+        <v>530</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>488</v>
@@ -12286,8 +12542,8 @@
       <c r="C5" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>529</v>
+      <c r="D5" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>488</v>
@@ -12301,10 +12557,10 @@
         <v>493</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>529</v>
+        <v>594</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>488</v>
@@ -12318,10 +12574,10 @@
         <v>16716</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>529</v>
+        <v>494</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>488</v>
@@ -12332,13 +12588,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>529</v>
+      <c r="D8" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>488</v>
@@ -12349,13 +12605,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>529</v>
+      <c r="D9" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>488</v>
@@ -12366,13 +12622,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>529</v>
+      <c r="D10" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>488</v>
@@ -12386,10 +12642,10 @@
         <v>18907</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>530</v>
+        <v>501</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>529</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>488</v>
@@ -12400,13 +12656,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>529</v>
+      <c r="D12" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>39</v>
@@ -12417,13 +12673,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>529</v>
+      <c r="D13" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>39</v>
@@ -12434,13 +12690,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>529</v>
+      <c r="D14" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -12451,13 +12707,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>529</v>
+      <c r="D15" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
@@ -12468,13 +12724,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>529</v>
+      <c r="D16" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>39</v>
@@ -12485,13 +12741,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>529</v>
+      <c r="D17" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -12502,13 +12758,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>529</v>
+      <c r="D18" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>39</v>
@@ -12519,13 +12775,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>529</v>
+      <c r="D19" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>39</v>
@@ -12536,13 +12792,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>529</v>
+      <c r="D20" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>39</v>
@@ -12553,13 +12809,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>529</v>
+      <c r="D21" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>39</v>
@@ -12570,13 +12826,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>529</v>
+      <c r="D22" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>39</v>
@@ -12587,13 +12843,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>529</v>
+      <c r="D23" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>39</v>
@@ -12604,16 +12860,152 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>529</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
